--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325465.738992038</v>
+        <v>3327226.269294824</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>72.36698404190675</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -712,13 +712,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>111.2254363169657</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>200.6191656912683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>179.5512779206927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>126.0935342547108</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7993414426854</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>244.8448976285503</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015062</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>157.6296292902953</v>
+        <v>142.7176680304109</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>139.2828448129278</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>186.9913243341641</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>100.5239476748849</v>
       </c>
       <c r="U8" t="n">
-        <v>250.9401479602749</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115239</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256433</v>
+        <v>132.6026661256424</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932180058</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.34571932180039</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.46574022124193</v>
+        <v>1.043911798777973</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>98.72106119200303</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.16086499484926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695582</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560541</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>170.9457618790577</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899464</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276843</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276843</v>
+        <v>114.1043876014621</v>
       </c>
       <c r="E2" t="n">
         <v>41.00642392276843</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030609</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991322</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>573.7617370571245</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="V2" t="n">
-        <v>307.3840804899464</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="W2" t="n">
-        <v>307.3840804899464</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899464</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899464</v>
+        <v>380.4820441686402</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749989</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749989</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699345</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302312</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>694.2029851278862</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374624</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374624</v>
+        <v>833.8740143024431</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057196</v>
+        <v>598.7219060707005</v>
       </c>
       <c r="W3" t="n">
-        <v>622.8943334057196</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="X3" t="n">
-        <v>415.0428332001868</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="Y3" t="n">
-        <v>233.6779060075679</v>
+        <v>344.4845493424988</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>466.0167908927597</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C4" t="n">
-        <v>466.0167908927597</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287948</v>
+        <v>126.413376528795</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551012</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>927.4883136881351</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>720.7012790986465</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>720.7012790986465</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="U4" t="n">
-        <v>720.7012790986465</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="V4" t="n">
-        <v>466.0167908927597</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="W4" t="n">
-        <v>466.0167908927597</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="X4" t="n">
-        <v>466.0167908927597</v>
+        <v>831.8258821851307</v>
       </c>
       <c r="Y4" t="n">
-        <v>466.0167908927597</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>801.1705019471535</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>801.1705019471535</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>801.1705019471535</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>801.1705019471535</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>553.8524235344764</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471535</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471535</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471535</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>801.1705019471535</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>801.1705019471535</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.322152659818</v>
+        <v>326.869123378691</v>
       </c>
       <c r="C6" t="n">
         <v>326.869123378691</v>
@@ -4634,64 +4634,64 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>877.2977884448399</v>
+        <v>910.6962593692458</v>
       </c>
       <c r="X6" t="n">
-        <v>877.2977884448399</v>
+        <v>702.844759163713</v>
       </c>
       <c r="Y6" t="n">
-        <v>669.537489679886</v>
+        <v>495.0844603987591</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434482</v>
+        <v>463.53435044219</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>294.598167514283</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>785.3732496054271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>785.3732496054271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>785.3732496054271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>530.6887613995402</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>264.3111048323622</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>36.32155393434482</v>
+        <v>865.9753944159598</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434482</v>
+        <v>645.1828152724297</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.6512305626363</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="C8" t="n">
-        <v>859.6512305626363</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626363</v>
+        <v>859.6512305626362</v>
       </c>
       <c r="E8" t="n">
         <v>473.862977964392</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478445</v>
+        <v>62.87707317478442</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685567</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685567</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685567</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607426</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045931</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342783</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342783</v>
+        <v>2334.290674676392</v>
       </c>
       <c r="U8" t="n">
-        <v>2307.087863413213</v>
+        <v>2334.290674676392</v>
       </c>
       <c r="V8" t="n">
-        <v>1976.024976069642</v>
+        <v>2334.290674676392</v>
       </c>
       <c r="W8" t="n">
-        <v>1623.256320799528</v>
+        <v>1981.522019406278</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.790562538448</v>
+        <v>1608.056261145199</v>
       </c>
       <c r="Y8" t="n">
-        <v>859.6512305626363</v>
+        <v>1217.916929169387</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,37 +4877,37 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685567</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>238.3188829507234</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381353</v>
+        <v>589.4696922330243</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716165</v>
+        <v>884.0056756665055</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945918</v>
+        <v>1247.072144140807</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418487</v>
+        <v>1634.156546613376</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405876</v>
+        <v>1966.043356600765</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789038</v>
+        <v>2213.078715030389</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342783</v>
+        <v>2536.272628442625</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342783</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
         <v>2426.620673347184</v>
@@ -4919,7 +4919,7 @@
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686145</v>
+        <v>715.9213805686143</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407076</v>
+        <v>546.9851976407074</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283719</v>
+        <v>396.8685582283716</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459787</v>
+        <v>248.9554646459785</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480684</v>
+        <v>102.0655171480682</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685567</v>
+        <v>102.0655171480682</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685567</v>
+        <v>102.0655171480682</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685567</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380146</v>
+        <v>76.63468308380142</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
         <v>1581.490387616499</v>
@@ -5001,13 +5001,13 @@
         <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440402</v>
+        <v>1346.351975440401</v>
       </c>
       <c r="X10" t="n">
         <v>1118.362424542384</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988542</v>
+        <v>897.569845398854</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776659</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5779,7 +5779,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6071,16 +6071,16 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6311,13 +6311,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6375,7 +6375,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,31 +6712,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111728</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6949,25 +6949,25 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7420,19 +7420,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7663,16 +7663,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492579</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7788,22 +7788,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544059</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.78351343583233</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446529</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821388</v>
+        <v>168.2361746779815</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348511</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-3.530613443644091e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-3.110000002187315e-13</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>85.96822242532724</v>
+        <v>145.3900508477912</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>57.22910392194174</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>46.45968844823054</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778549</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.939721005</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580787</v>
+        <v>390680.0076580786</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606933</v>
+        <v>507909.2320606937</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.206896127130697e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910177</v>
+        <v>95270.23779101751</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
         <v>136854.4547662839</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756488</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675655</v>
-      </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26459,7 +26459,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756581</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252741.4576041508</v>
+        <v>-252741.4576041507</v>
       </c>
       <c r="C6" t="n">
-        <v>427346.5229870419</v>
+        <v>427346.5229870423</v>
       </c>
       <c r="D6" t="n">
-        <v>118500.2628778131</v>
+        <v>118500.2628778137</v>
       </c>
       <c r="E6" t="n">
-        <v>107715.5982252911</v>
+        <v>108028.2395542121</v>
       </c>
       <c r="F6" t="n">
-        <v>615624.8302859848</v>
+        <v>615937.4716149057</v>
       </c>
       <c r="G6" t="n">
-        <v>615624.8302859847</v>
+        <v>615937.4716149063</v>
       </c>
       <c r="H6" t="n">
-        <v>615624.8302859846</v>
+        <v>615937.4716149059</v>
       </c>
       <c r="I6" t="n">
-        <v>615624.8302859848</v>
+        <v>615937.4716149059</v>
       </c>
       <c r="J6" t="n">
-        <v>546625.6758668704</v>
+        <v>546938.3171957918</v>
       </c>
       <c r="K6" t="n">
-        <v>615624.8302859846</v>
+        <v>615937.4716149054</v>
       </c>
       <c r="L6" t="n">
-        <v>520354.5924949671</v>
+        <v>520667.2338238882</v>
       </c>
       <c r="M6" t="n">
-        <v>482906.8545905157</v>
+        <v>483219.4959194364</v>
       </c>
       <c r="N6" t="n">
-        <v>615624.8302859846</v>
+        <v>615937.4716149061</v>
       </c>
       <c r="O6" t="n">
-        <v>615624.8302859846</v>
+        <v>615937.4716149061</v>
       </c>
       <c r="P6" t="n">
-        <v>615624.8302859848</v>
+        <v>615937.4716149062</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856958</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.045058871959616e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.008620158913371e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>319.6474457933043</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139523</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841899</v>
+        <v>376.4268100841891</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139528</v>
+        <v>532.5675980139533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.045058871959616e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.008620158913371e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139523</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>309.563386030355</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>139.9227315613168</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>25.23532181228632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>26.13141785661168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.411068628953174</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>2.41500443688048</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>162.0311481131611</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>187.4310348820949</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776178</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27672,7 +27672,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>94.06535387062428</v>
+        <v>108.9773151305087</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>65.43631943066595</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>38.71833105487309</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>106.140615389805</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1052187294107796</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164530533</v>
+        <v>1.776449164531442</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899056</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>54.47053042129912</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28149,16 +28149,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.227171273585544e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.045058871959616e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.045058871959616e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-8.045058871959616e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-2.240457486755614e-13</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-2.673807016155355e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,13 +30747,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-9.008620158913371e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-9.008620158913371e-14</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
         <v>144.7098053157555</v>
@@ -31527,22 +31527,22 @@
         <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
         <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
         <v>405.3441667542128</v>
@@ -31557,7 +31557,7 @@
         <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,10 +31597,10 @@
         <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
         <v>189.7441951079425</v>
@@ -31612,10 +31612,10 @@
         <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
         <v>477.8354464519082</v>
@@ -31624,7 +31624,7 @@
         <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204788</v>
@@ -31633,7 +31633,7 @@
         <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31706,16 +31706,16 @@
         <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
         <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33268,13 +33268,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>307.9814458135821</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33286,7 +33286,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663295</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175677</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912726</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34789,10 +34789,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>217.4386117456604</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966407</v>
+        <v>106.3800667966409</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
         <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127582</v>
+        <v>188.9976037816846</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579965</v>
+        <v>354.6977871538392</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.5110943772537</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>390.9943459318879</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074638</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203658</v>
+        <v>249.5306650804285</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>326.4584983961976</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783569</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
         <v>173.3488267513689</v>
@@ -35345,7 +35345,7 @@
         <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
         <v>200.9175350357665</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>169.427066033708</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396432</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37548,7 +37548,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
